--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H2">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I2">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J2">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.367553</v>
+        <v>16.57637</v>
       </c>
       <c r="N2">
-        <v>13.102659</v>
+        <v>49.72911</v>
       </c>
       <c r="O2">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="P2">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="Q2">
-        <v>40.020611696947</v>
+        <v>11.88530149365333</v>
       </c>
       <c r="R2">
-        <v>360.185505272523</v>
+        <v>106.96771344288</v>
       </c>
       <c r="S2">
-        <v>0.01584146761414004</v>
+        <v>0.005475509370705003</v>
       </c>
       <c r="T2">
-        <v>0.01584146761414005</v>
+        <v>0.005475509370705004</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H3">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I3">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J3">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>160.353608</v>
       </c>
       <c r="O3">
-        <v>0.6923372340884159</v>
+        <v>0.5978024790674488</v>
       </c>
       <c r="P3">
-        <v>0.692337234088416</v>
+        <v>0.5978024790674489</v>
       </c>
       <c r="Q3">
-        <v>489.7822251172418</v>
+        <v>38.32465484854045</v>
       </c>
       <c r="R3">
-        <v>4408.040026055176</v>
+        <v>344.921893636864</v>
       </c>
       <c r="S3">
-        <v>0.1938718307438595</v>
+        <v>0.01765601039774001</v>
       </c>
       <c r="T3">
-        <v>0.1938718307438596</v>
+        <v>0.01765601039774001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H4">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I4">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J4">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>58.155728</v>
       </c>
       <c r="O4">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="P4">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="Q4">
-        <v>177.6301900432018</v>
+        <v>13.89927068598045</v>
       </c>
       <c r="R4">
-        <v>1598.671710388816</v>
+        <v>125.093436173824</v>
       </c>
       <c r="S4">
-        <v>0.0703118414123986</v>
+        <v>0.006403336669893575</v>
       </c>
       <c r="T4">
-        <v>0.0703118414123986</v>
+        <v>0.006403336669893575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>36.201142</v>
       </c>
       <c r="I5">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J5">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.367553</v>
+        <v>16.57637</v>
       </c>
       <c r="N5">
-        <v>13.102659</v>
+        <v>49.72911</v>
       </c>
       <c r="O5">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="P5">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="Q5">
-        <v>52.70346878184201</v>
+        <v>200.0278414048467</v>
       </c>
       <c r="R5">
-        <v>474.3312190365781</v>
+        <v>1800.25057264362</v>
       </c>
       <c r="S5">
-        <v>0.02086175744095591</v>
+        <v>0.09215200141106981</v>
       </c>
       <c r="T5">
-        <v>0.02086175744095591</v>
+        <v>0.09215200141106981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.201142</v>
       </c>
       <c r="I6">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J6">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>160.353608</v>
       </c>
       <c r="O6">
-        <v>0.6923372340884159</v>
+        <v>0.5978024790674488</v>
       </c>
       <c r="P6">
-        <v>0.692337234088416</v>
+        <v>0.5978024790674489</v>
       </c>
       <c r="Q6">
-        <v>644.9981926022597</v>
+        <v>644.9981926022596</v>
       </c>
       <c r="R6">
-        <v>5804.983733420337</v>
+        <v>5804.983733420336</v>
       </c>
       <c r="S6">
-        <v>0.2553113894575236</v>
+        <v>0.2971480066843371</v>
       </c>
       <c r="T6">
-        <v>0.2553113894575236</v>
+        <v>0.2971480066843371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.201142</v>
       </c>
       <c r="I7">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J7">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>58.155728</v>
       </c>
       <c r="O7">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="P7">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="Q7">
         <v>233.9226408268196</v>
@@ -880,10 +880,10 @@
         <v>2105.303767441376</v>
       </c>
       <c r="S7">
-        <v>0.09259423536384544</v>
+        <v>0.1077671956871497</v>
       </c>
       <c r="T7">
-        <v>0.09259423536384544</v>
+        <v>0.1077671956871497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>34.477322</v>
       </c>
       <c r="I8">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J8">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.367553</v>
+        <v>16.57637</v>
       </c>
       <c r="N8">
-        <v>13.102659</v>
+        <v>49.72911</v>
       </c>
       <c r="O8">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="P8">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="Q8">
-        <v>50.19384371102201</v>
+        <v>190.5029486937133</v>
       </c>
       <c r="R8">
-        <v>451.744593399198</v>
+        <v>1714.52653824342</v>
       </c>
       <c r="S8">
-        <v>0.01986836572110716</v>
+        <v>0.08776392262967583</v>
       </c>
       <c r="T8">
-        <v>0.01986836572110716</v>
+        <v>0.08776392262967583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>34.477322</v>
       </c>
       <c r="I9">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J9">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>160.353608</v>
       </c>
       <c r="O9">
-        <v>0.6923372340884159</v>
+        <v>0.5978024790674488</v>
       </c>
       <c r="P9">
-        <v>0.692337234088416</v>
+        <v>0.5978024790674489</v>
       </c>
       <c r="Q9">
         <v>614.2847752086418</v>
@@ -1004,10 +1004,10 @@
         <v>5528.562976877776</v>
       </c>
       <c r="S9">
-        <v>0.2431540138870328</v>
+        <v>0.2829984619853717</v>
       </c>
       <c r="T9">
-        <v>0.2431540138870328</v>
+        <v>0.2829984619853718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>34.477322</v>
       </c>
       <c r="I10">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J10">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>58.155728</v>
       </c>
       <c r="O10">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="P10">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="Q10">
         <v>222.7837511556018</v>
@@ -1066,10 +1066,10 @@
         <v>2005.053760400416</v>
       </c>
       <c r="S10">
-        <v>0.088185098359137</v>
+        <v>0.1026355551640573</v>
       </c>
       <c r="T10">
-        <v>0.088185098359137</v>
+        <v>0.1026355551640573</v>
       </c>
     </row>
   </sheetData>
